--- a/Documents/Examples/Other/amendment_1.xlsx
+++ b/Documents/Examples/Other/amendment_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1F4B94-0906-1B42-8628-1157FD3472F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F351C32-2086-B54A-B3B1-480D0547035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45260" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="658">
   <si>
     <t>Screening</t>
   </si>
@@ -2227,10 +2227,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3140,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5718,34 +5718,34 @@
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5865,16 +5865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6035,11 +6035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6238,9 +6238,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -6264,9 +6262,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
